--- a/Resources/Artikel.xlsx
+++ b/Resources/Artikel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="471">
   <si>
     <t>Peter Meinl</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Abhängig davon, wie ein Fehler gemeldet wurde, gibt es verschiedene Möglichkeiten, auf ihn zu reagieren:</t>
   </si>
   <si>
-    <t xml:space="preserve">Inline – Mit If RevtVal = oder If Err Then </t>
-  </si>
-  <si>
     <t>nach jeder wesentlichen Aktion prüfen, ob ein Fehler aufgetreten ist:</t>
   </si>
   <si>
@@ -1428,13 +1425,25 @@
   </si>
   <si>
     <t>Tipps zur Fehlerbehandlung</t>
+  </si>
+  <si>
+    <t>FALSCH HERUM</t>
+  </si>
+  <si>
+    <t>zuerst ErrorHandler dann danach Cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline – Mit If RetVal = oder If Err Then </t>
+  </si>
+  <si>
+    <t>ANWENDUNG EMPFOHLEN BEI Resume Try</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,13 +1481,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1493,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,6 +1523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1952,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H668"/>
+  <dimension ref="A1:O668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="C657" sqref="C657"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="O478" sqref="O478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,42 +2403,42 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
@@ -2424,257 +2446,257 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
@@ -2682,12 +2704,12 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,12 +2717,12 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,12 +2730,12 @@
         <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,647 +2743,647 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C317" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C322" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C325" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C331" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="341" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="343" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="345" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="346" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="347" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="348" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="349" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="350" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="351" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D357" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D361" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C367" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -3369,863 +3391,872 @@
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C368" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C370" s="5"/>
       <c r="D370" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F371" s="5"/>
-    </row>
-    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I371" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="372" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F372" s="5"/>
-    </row>
-    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I372" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="373" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C374" s="5"/>
       <c r="D374" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C379" s="5"/>
       <c r="D379" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="382" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C382" t="s">
+    <row r="383" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C383" t="s">
+    <row r="384" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C384" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="412" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="413" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F433" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F434" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F435" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F436" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="437" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="438" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="439" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="440" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="441" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="442" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="444" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B444" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="445" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="446" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="447" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="448" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="465" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C465" t="s">
+    <row r="466" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C466" t="s">
+    <row r="468" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B468" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B468" s="2" t="s">
+    <row r="469" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C469" t="s">
+    <row r="470" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C470" t="s">
+    <row r="471" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C471" t="s">
+    <row r="473" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B473" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B473" s="2" t="s">
+    <row r="474" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C474" t="s">
+    <row r="475" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C475" t="s">
+    <row r="477" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B477" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B477" s="2" t="s">
+    <row r="478" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C478" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="5" t="s">
+      <c r="O478" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="479" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C479" t="s">
+    <row r="480" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C480" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="482" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C482" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="483" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="484" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D484" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="485" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E485" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="486" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F486" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="487" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F487" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="488" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F488" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="489" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E489" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="490" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C490" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="491" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E491" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="492" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D492" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="493" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D493" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="494" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C494" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="495" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D495" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="496" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D496" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="497" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D497" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="498" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D498" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="499" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C499" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="501" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C501" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="503" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C503" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="504" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D504" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="505" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E505" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="506" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="507" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D507" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="508" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C508" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="510" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C510" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="511" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D511" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="512" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D512" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="513" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E513" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="514" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E514" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="515" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="516" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D516" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="517" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D517" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="518" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C518" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="519" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D519" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="520" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D520" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="521" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D521" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="522" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D522" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="523" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C523" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="525" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C525" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="526" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C526" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="527" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C527" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C544" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C545" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B554" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B555" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B556" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B557" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B558" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B564" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,463 +4264,463 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B566" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B569" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C570" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C571" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C572" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C573" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B575" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C576" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="577" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C577" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="578" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C578" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="579" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C579" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="581" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C581" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="582" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C582" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="583" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C583" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="584" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C584" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="585" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C585" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="586" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D586" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="587" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D587" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="588" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C588" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="589" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C589" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="591" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C591" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="592" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C592" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C609" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C611" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C612" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C613" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C614" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C615" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B618" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B619" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B620" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B621" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B622" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B623" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B624" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="625" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B625" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C626" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C627" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C628" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B629" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B630" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C631" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C632" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C633" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B634" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B635" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B637" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B638" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C639" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B642" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B643" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B644" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B645" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B646" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B647" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B651" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C651" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B652" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C652" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B653" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C653" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B654" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C654" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B655" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C655" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B656" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C656" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C657" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C658" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C659" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B660" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C660" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
